--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_29.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_29.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_0</t>
+          <t>model_1_29_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9939708920085466</v>
+        <v>0.8511729358810118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8049284473183776</v>
+        <v>0.6265472149788796</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7485456965225787</v>
+        <v>0.7424251714567904</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9965431298800338</v>
+        <v>0.8131822862039984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02509632297251207</v>
+        <v>0.3527488112865397</v>
       </c>
       <c r="G2" t="n">
-        <v>1.304444371003917</v>
+        <v>2.497280493028191</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8994374633804967</v>
+        <v>0.9213302266523875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02140218114975919</v>
+        <v>0.3286205539634572</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2330787441630462</v>
+        <v>1.086261916466588</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1584181901566612</v>
+        <v>0.5939266042926008</v>
       </c>
       <c r="L2" t="n">
-        <v>1.385862911453017</v>
+        <v>0.7973418701358459</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1609131182915368</v>
+        <v>0.6032803546014217</v>
       </c>
       <c r="N2" t="n">
-        <v>137.3700678773898</v>
+        <v>36.08399811620339</v>
       </c>
       <c r="O2" t="n">
-        <v>278.7052404206062</v>
+        <v>73.04858170442921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_1</t>
+          <t>model_1_29_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9940150521095132</v>
+        <v>0.8508680988975561</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8048356124122487</v>
+        <v>0.6259754343671421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7486384020114238</v>
+        <v>0.742025596321251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.996362874156243</v>
+        <v>0.8156580219707881</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0249125053733036</v>
+        <v>0.3534713336596493</v>
       </c>
       <c r="G3" t="n">
-        <v>1.305065158448667</v>
+        <v>2.501103992611686</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8991058612222709</v>
+        <v>0.9227594837435149</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02251818074476002</v>
+        <v>0.3242656261430795</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2815960175402442</v>
+        <v>1.102237142112786</v>
       </c>
       <c r="K3" t="n">
-        <v>0.157836958198337</v>
+        <v>0.5945345521158962</v>
       </c>
       <c r="L3" t="n">
-        <v>1.383036664991153</v>
+        <v>0.796926772966885</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1603227325108878</v>
+        <v>0.6038978769952091</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3847707555124</v>
+        <v>36.07990577966857</v>
       </c>
       <c r="O3" t="n">
-        <v>278.7199432987288</v>
+        <v>73.04448936789439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_2</t>
+          <t>model_1_29_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9939430005595893</v>
+        <v>0.8504923667101056</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8046932311930414</v>
+        <v>0.6253383566450149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7483464311439718</v>
+        <v>0.7415190499803286</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9957960402758408</v>
+        <v>0.8182548509025458</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0252124218734103</v>
+        <v>0.3543618913231351</v>
       </c>
       <c r="G4" t="n">
-        <v>1.306017262317111</v>
+        <v>2.505364134273024</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9001502240857033</v>
+        <v>0.9245713706337497</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02602756379045766</v>
+        <v>0.3196976901333582</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3309141491641043</v>
+        <v>1.118559048366325</v>
       </c>
       <c r="K4" t="n">
-        <v>0.158784199067194</v>
+        <v>0.5952830346340596</v>
       </c>
       <c r="L4" t="n">
-        <v>1.387647964186286</v>
+        <v>0.7964151376478035</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1612848914765358</v>
+        <v>0.6046581473648256</v>
       </c>
       <c r="N4" t="n">
-        <v>137.3608369488621</v>
+        <v>36.07487319231917</v>
       </c>
       <c r="O4" t="n">
-        <v>278.6960094920785</v>
+        <v>73.039456780545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_3</t>
+          <t>model_1_29_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9937849528104674</v>
+        <v>0.8500450261755429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8045552380346106</v>
+        <v>0.6246325945818852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7476000375111214</v>
+        <v>0.7408859071097575</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9949493136516721</v>
+        <v>0.820970503897146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02587029984850457</v>
+        <v>0.3554221745635618</v>
       </c>
       <c r="G5" t="n">
-        <v>1.306940023202938</v>
+        <v>2.510083568438907</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9028200308320199</v>
+        <v>0.9268360859700495</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03126981934704254</v>
+        <v>0.3149207373844742</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3748309476601558</v>
+        <v>1.134556831765185</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1608424690450398</v>
+        <v>0.5961729401470364</v>
       </c>
       <c r="L5" t="n">
-        <v>1.397763020130085</v>
+        <v>0.7958059930901009</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1633755771490175</v>
+        <v>0.6055620680000525</v>
       </c>
       <c r="N5" t="n">
-        <v>137.3093193845273</v>
+        <v>36.0688979439018</v>
       </c>
       <c r="O5" t="n">
-        <v>278.6444919277437</v>
+        <v>73.03348153212761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_4</t>
+          <t>model_1_29_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9934770733724724</v>
+        <v>0.8495203082027124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8043564229019109</v>
+        <v>0.6238549642591897</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7465396732243006</v>
+        <v>0.7401017315116032</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9936079401697093</v>
+        <v>0.8238042064607221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02715185622856455</v>
+        <v>0.3566658572382979</v>
       </c>
       <c r="G6" t="n">
-        <v>1.30826950091076</v>
+        <v>2.515283585987431</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9066128924025234</v>
+        <v>0.9296410366155334</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03957453351163806</v>
+        <v>0.3099361302651146</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4249683453979635</v>
+        <v>1.149831160307629</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1647782031355014</v>
+        <v>0.5972150845702894</v>
       </c>
       <c r="L6" t="n">
-        <v>1.417467304161768</v>
+        <v>0.7950914835100764</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1673732951171132</v>
+        <v>0.6066206251562095</v>
       </c>
       <c r="N6" t="n">
-        <v>137.2126197311261</v>
+        <v>36.06191181924441</v>
       </c>
       <c r="O6" t="n">
-        <v>278.5477922743425</v>
+        <v>73.02649540747022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_5</t>
+          <t>model_1_29_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9930699966131474</v>
+        <v>0.8489541188778706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8041353590539744</v>
+        <v>0.6230217478797367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7450558138191566</v>
+        <v>0.739155295992183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.991936047118817</v>
+        <v>0.8267568530776827</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02884632410691478</v>
+        <v>0.3580078350061412</v>
       </c>
       <c r="G7" t="n">
-        <v>1.309747755879817</v>
+        <v>2.520855307753441</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9119205714556118</v>
+        <v>0.9330263815910153</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04992556108757994</v>
+        <v>0.3047422953379649</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4730495282574939</v>
+        <v>1.161886241605669</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1698420563550583</v>
+        <v>0.5983375594145341</v>
       </c>
       <c r="L7" t="n">
-        <v>1.443520216758564</v>
+        <v>0.7943205023017813</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1725168989628819</v>
+        <v>0.6077607778571881</v>
       </c>
       <c r="N7" t="n">
-        <v>137.0915454162353</v>
+        <v>36.05440081465781</v>
       </c>
       <c r="O7" t="n">
-        <v>278.4267179594517</v>
+        <v>73.01898440288363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_6</t>
+          <t>model_1_29_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9924535060460057</v>
+        <v>0.8485029987750462</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8038345133160766</v>
+        <v>0.6222051650183669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7432013143617029</v>
+        <v>0.7380809077377517</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9895716054681369</v>
+        <v>0.8298476197450376</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03141248255098811</v>
+        <v>0.359077076551426</v>
       </c>
       <c r="G8" t="n">
-        <v>1.311759512714407</v>
+        <v>2.52631580110744</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9185540084848668</v>
+        <v>0.9368694060805055</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06456429692946526</v>
+        <v>0.2993055011830644</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5286121298017132</v>
+        <v>1.16276012488178</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1772356695222159</v>
+        <v>0.5992304035606221</v>
       </c>
       <c r="L8" t="n">
-        <v>1.482975613055636</v>
+        <v>0.7937062110979353</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1800269541465206</v>
+        <v>0.6086676834060601</v>
       </c>
       <c r="N8" t="n">
-        <v>136.9210998631849</v>
+        <v>36.04843643124664</v>
       </c>
       <c r="O8" t="n">
-        <v>278.2562724064013</v>
+        <v>73.01302001947246</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_7</t>
+          <t>model_1_29_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9917459269161994</v>
+        <v>0.848384866000129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.803505560819963</v>
+        <v>0.6215278560527616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7409909889867574</v>
+        <v>0.7369219935033672</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9869032588055746</v>
+        <v>0.8330608824229472</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03435779956892823</v>
+        <v>0.3593570739845052</v>
       </c>
       <c r="G9" t="n">
-        <v>1.313959219570605</v>
+        <v>2.530844969279164</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9264602141890181</v>
+        <v>0.941014775099191</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08108457008426773</v>
+        <v>0.2936532311718931</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5808103821498669</v>
+        <v>1.140622055690851</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1853585702602613</v>
+        <v>0.599463988897169</v>
       </c>
       <c r="L9" t="n">
-        <v>1.528260677363235</v>
+        <v>0.7935453494469842</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1882777824512686</v>
+        <v>0.6089049474781579</v>
       </c>
       <c r="N9" t="n">
-        <v>136.7418524488039</v>
+        <v>36.04687749952244</v>
       </c>
       <c r="O9" t="n">
-        <v>278.0770249920204</v>
+        <v>73.01146108774826</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_8</t>
+          <t>model_1_29_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9909527684111376</v>
+        <v>0.8481140133660103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8031674023630422</v>
+        <v>0.6208176158388401</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7382721521142599</v>
+        <v>0.735414443916081</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9839517946005755</v>
+        <v>0.8363780061341509</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03765934302106812</v>
+        <v>0.3599990469031055</v>
       </c>
       <c r="G10" t="n">
-        <v>1.316220486729111</v>
+        <v>2.535594348860012</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9361853360347219</v>
+        <v>0.946407192560166</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09935768112988594</v>
+        <v>0.2878182650469386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6308416070474777</v>
+        <v>1.115357890485664</v>
       </c>
       <c r="K10" t="n">
-        <v>0.194060153099672</v>
+        <v>0.5999992057520622</v>
       </c>
       <c r="L10" t="n">
-        <v>1.579022821687197</v>
+        <v>0.7931765288388226</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1971164065220083</v>
+        <v>0.6094485934634952</v>
       </c>
       <c r="N10" t="n">
-        <v>136.5583484018229</v>
+        <v>36.04330779005372</v>
       </c>
       <c r="O10" t="n">
-        <v>277.8935209450393</v>
+        <v>73.00789137827954</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_9</t>
+          <t>model_1_29_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9897882098982191</v>
+        <v>0.8482948075183978</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8027148129340782</v>
+        <v>0.620526137293661</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7345143772337653</v>
+        <v>0.7336823329930374</v>
       </c>
       <c r="E11" t="n">
-        <v>0.979760495467612</v>
+        <v>0.8391376028426334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04250684892111486</v>
+        <v>0.3595705299346375</v>
       </c>
       <c r="G11" t="n">
-        <v>1.319246954324576</v>
+        <v>2.53754346723376</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9496266788939443</v>
+        <v>0.9526028528983311</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1253068606429974</v>
+        <v>0.2829640133775947</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6941944682308632</v>
+        <v>1.044484883809547</v>
       </c>
       <c r="K11" t="n">
-        <v>0.206171891685348</v>
+        <v>0.5996420014764121</v>
       </c>
       <c r="L11" t="n">
-        <v>1.653554566513975</v>
+        <v>0.793422716620797</v>
       </c>
       <c r="M11" t="n">
-        <v>0.209418892883112</v>
+        <v>0.6090857635775769</v>
       </c>
       <c r="N11" t="n">
-        <v>136.3161801299003</v>
+        <v>36.04568986418758</v>
       </c>
       <c r="O11" t="n">
-        <v>277.6513526731167</v>
+        <v>73.0102734524134</v>
       </c>
     </row>
   </sheetData>
